--- a/clean_data/avg_ret_all_1118.xlsx
+++ b/clean_data/avg_ret_all_1118.xlsx
@@ -28,7 +28,7 @@
     <t>low_quality_cumprod</t>
   </si>
   <si>
-    <t>Data Date</t>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1702 +417,1294 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>35430</v>
+        <v>35338</v>
       </c>
       <c r="B2">
-        <v>-0.05909090909090908</v>
+        <v>0.02445542876367732</v>
       </c>
       <c r="C2">
-        <v>0.08840990986752278</v>
+        <v>0.04096288631562953</v>
       </c>
       <c r="D2">
-        <v>0.9409090909090909</v>
+        <v>1.024455428763677</v>
       </c>
       <c r="E2">
-        <v>1.088409909867523</v>
+        <v>1.040962886315629</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35703</v>
+        <v>35430</v>
       </c>
       <c r="B3">
-        <v>0.08421128266523874</v>
+        <v>0.05497167524001478</v>
       </c>
       <c r="C3">
-        <v>0.1011241597138632</v>
+        <v>0.02049605944515105</v>
       </c>
       <c r="D3">
-        <v>1.020144252325929</v>
+        <v>1.080771459891544</v>
       </c>
       <c r="E3">
-        <v>1.198474447427118</v>
+        <v>1.062298523513751</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35795</v>
+        <v>35520</v>
       </c>
       <c r="B4">
-        <v>-0.001446436244982419</v>
+        <v>-0.02113718634667416</v>
       </c>
       <c r="C4">
-        <v>-0.04469562103746738</v>
+        <v>-0.0071411552095655</v>
       </c>
       <c r="D4">
-        <v>1.018668678704254</v>
+        <v>1.05792699214565</v>
       </c>
       <c r="E4">
-        <v>1.144907887701827</v>
+        <v>1.054712484878447</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>35885</v>
+        <v>35611</v>
       </c>
       <c r="B5">
-        <v>0.08431964257697361</v>
+        <v>0.1462356021284458</v>
       </c>
       <c r="C5">
-        <v>0.08616196610996708</v>
+        <v>0.1215324535534734</v>
       </c>
       <c r="D5">
-        <v>1.104562457596955</v>
+        <v>1.212633582850004</v>
       </c>
       <c r="E5">
-        <v>1.243555402321026</v>
+        <v>1.182894280959205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>35976</v>
+        <v>35703</v>
       </c>
       <c r="B6">
-        <v>-0.0622956786688741</v>
+        <v>0.1079871965610194</v>
       </c>
       <c r="C6">
-        <v>0.09025015423503431</v>
+        <v>0.121937819391984</v>
       </c>
       <c r="D6">
-        <v>1.035752989668793</v>
+        <v>1.343582483917721</v>
       </c>
       <c r="E6">
-        <v>1.355786469180309</v>
+        <v>1.327133830150619</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>36068</v>
+        <v>35795</v>
       </c>
       <c r="B7">
-        <v>-0.1660420877849405</v>
+        <v>0.01501854532821565</v>
       </c>
       <c r="C7">
-        <v>-0.223074201467294</v>
+        <v>-0.04889610521400475</v>
       </c>
       <c r="D7">
-        <v>0.8637744008346929</v>
+        <v>1.363761138354636</v>
       </c>
       <c r="E7">
-        <v>1.053345485207749</v>
+        <v>1.26224215475851</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>36160</v>
+        <v>35885</v>
       </c>
       <c r="B8">
-        <v>0.1378512398664175</v>
+        <v>0.04601991922263806</v>
       </c>
       <c r="C8">
-        <v>0.1744496467606714</v>
+        <v>0.08989539873376974</v>
       </c>
       <c r="D8">
-        <v>0.9828467729546273</v>
+        <v>1.426521315780689</v>
       </c>
       <c r="E8">
-        <v>1.237101233019189</v>
+        <v>1.375711916559099</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>36250</v>
+        <v>35976</v>
       </c>
       <c r="B9">
-        <v>-0.1045200503138042</v>
+        <v>-0.01233255086376203</v>
       </c>
       <c r="C9">
-        <v>-0.05384269343930093</v>
+        <v>-0.1054059390850016</v>
       </c>
       <c r="D9">
-        <v>0.8801195787946496</v>
+        <v>1.408928669095583</v>
       </c>
       <c r="E9">
-        <v>1.170492370576356</v>
+        <v>1.230703710083759</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>36341</v>
+        <v>36068</v>
       </c>
       <c r="B10">
-        <v>0.1345437196192001</v>
+        <v>-0.2126175675047391</v>
       </c>
       <c r="C10">
-        <v>11.64078382966719</v>
+        <v>-0.2188372488658569</v>
       </c>
       <c r="D10">
-        <v>0.9985341406353655</v>
+        <v>1.109365682684791</v>
       </c>
       <c r="E10">
-        <v>14.79594103073041</v>
+        <v>0.9613798960000264</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>36433</v>
+        <v>36160</v>
       </c>
       <c r="B11">
-        <v>-0.1315206437060994</v>
+        <v>0.2027483846973085</v>
       </c>
       <c r="C11">
-        <v>-0.1053660078166318</v>
+        <v>0.1634721944463655</v>
       </c>
       <c r="D11">
-        <v>0.8672062876964854</v>
+        <v>1.334287782887759</v>
       </c>
       <c r="E11">
-        <v>13.23695179243205</v>
+        <v>1.118538777295769</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>36525</v>
+        <v>36250</v>
       </c>
       <c r="B12">
-        <v>0.04049328628562728</v>
+        <v>-0.064668743189466</v>
       </c>
       <c r="C12">
-        <v>0.06754108899196003</v>
+        <v>-0.04516470928801874</v>
       </c>
       <c r="D12">
-        <v>0.9023223201728753</v>
+        <v>1.248001068915348</v>
       </c>
       <c r="E12">
-        <v>14.13098993142699</v>
+        <v>1.06802029859183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>36616</v>
+        <v>36341</v>
       </c>
       <c r="B13">
-        <v>-0.02315589705711879</v>
+        <v>0.09968454392415813</v>
       </c>
       <c r="C13">
-        <v>-0.01278980788160013</v>
+        <v>0.1964075795494926</v>
       </c>
       <c r="D13">
-        <v>0.8814282374146115</v>
+        <v>1.372407486287037</v>
       </c>
       <c r="E13">
-        <v>13.95025728502721</v>
+        <v>1.277787580347978</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36707</v>
+        <v>36433</v>
       </c>
       <c r="B14">
-        <v>0.00290373208728326</v>
+        <v>-0.1449707316710571</v>
       </c>
       <c r="C14">
-        <v>-0.03456487478321236</v>
+        <v>-0.1276417282184114</v>
       </c>
       <c r="D14">
-        <v>0.8839876688702299</v>
+        <v>1.173448568849169</v>
       </c>
       <c r="E14">
-        <v>13.46806838877665</v>
+        <v>1.11468856529634</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36799</v>
+        <v>36525</v>
       </c>
       <c r="B15">
-        <v>0.04762544197359936</v>
+        <v>0.08914723140582095</v>
       </c>
       <c r="C15">
-        <v>0.004164838279613991</v>
+        <v>0.04031979346957577</v>
       </c>
       <c r="D15">
-        <v>0.9260879722993864</v>
+        <v>1.278058259959195</v>
       </c>
       <c r="E15">
-        <v>13.52416071555469</v>
+        <v>1.159632578031986</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36891</v>
+        <v>36616</v>
       </c>
       <c r="B16">
-        <v>0.08837146216400288</v>
+        <v>-0.05993180144445921</v>
       </c>
       <c r="C16">
-        <v>0.06989199481161013</v>
+        <v>-0.03013538711091066</v>
       </c>
       <c r="D16">
-        <v>1.00792772050398</v>
+        <v>1.201461926088869</v>
       </c>
       <c r="E16">
-        <v>14.46939128611762</v>
+        <v>1.124686601386569</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36981</v>
+        <v>36707</v>
       </c>
       <c r="B17">
-        <v>0.0113737044493243</v>
+        <v>0.005563114950594595</v>
       </c>
       <c r="C17">
-        <v>0.01612897698711165</v>
+        <v>-0.05174166229287698</v>
       </c>
       <c r="D17">
-        <v>1.019391592503273</v>
+        <v>1.208145796892465</v>
       </c>
       <c r="E17">
-        <v>14.70276776518892</v>
+        <v>1.066493447072301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>37072</v>
+        <v>37256</v>
       </c>
       <c r="B18">
-        <v>0.0426357361151824</v>
+        <v>0.1278282449059742</v>
       </c>
       <c r="C18">
-        <v>-0.01647443275522927</v>
+        <v>0.1865567319768645</v>
       </c>
       <c r="D18">
-        <v>1.062854103439278</v>
+        <v>1.362580953699758</v>
       </c>
       <c r="E18">
-        <v>14.46054800632556</v>
+        <v>1.265454979232851</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>37164</v>
+        <v>37529</v>
       </c>
       <c r="B19">
-        <v>-0.07798415237243443</v>
+        <v>-0.136444979844854</v>
       </c>
       <c r="C19">
-        <v>-0.1047956799447969</v>
+        <v>-0.2132692298271059</v>
       </c>
       <c r="D19">
-        <v>0.9799683270870024</v>
+        <v>1.176663622935213</v>
       </c>
       <c r="E19">
-        <v>12.9451450456283</v>
+        <v>0.9955723704309842</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>37256</v>
+        <v>37621</v>
       </c>
       <c r="B20">
-        <v>0.1333480427625569</v>
+        <v>0.1927533304442299</v>
       </c>
       <c r="C20">
-        <v>0.1389518436951137</v>
+        <v>0.07592128345651017</v>
       </c>
       <c r="D20">
-        <v>1.110645185473351</v>
+        <v>1.403469455068549</v>
       </c>
       <c r="E20">
-        <v>14.74389681661902</v>
+        <v>1.071157502567945</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>37346</v>
+        <v>37711</v>
       </c>
       <c r="B21">
-        <v>0.06583963269267336</v>
+        <v>-0.03533000803421674</v>
       </c>
       <c r="C21">
-        <v>0.08103898262000633</v>
+        <v>-0.06640249552501146</v>
       </c>
       <c r="D21">
-        <v>1.183769656536803</v>
+        <v>1.353884867945199</v>
       </c>
       <c r="E21">
-        <v>15.93872721449217</v>
+        <v>1.000029971297094</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>37437</v>
+        <v>37802</v>
       </c>
       <c r="B22">
-        <v>-0.155691639018389</v>
+        <v>0.1490655278319887</v>
       </c>
       <c r="C22">
-        <v>-0.1971916736201761</v>
+        <v>0.2262042112576604</v>
       </c>
       <c r="D22">
-        <v>0.9994666184903526</v>
+        <v>1.555702430409193</v>
       </c>
       <c r="E22">
-        <v>12.79574291969101</v>
+        <v>1.226240962188374</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>37529</v>
+        <v>37894</v>
       </c>
       <c r="B23">
-        <v>0.04940876436521686</v>
+        <v>0.06390539645066182</v>
       </c>
       <c r="C23">
-        <v>-0.2080343264129814</v>
+        <v>0.08464917586040663</v>
       </c>
       <c r="D23">
-        <v>1.048849029134242</v>
+        <v>1.65512021098375</v>
       </c>
       <c r="E23">
-        <v>10.13378916043942</v>
+        <v>1.330041249043892</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>37621</v>
+        <v>37986</v>
       </c>
       <c r="B24">
-        <v>0.09626587735767345</v>
+        <v>0.1272050581964675</v>
       </c>
       <c r="C24">
-        <v>0.08150735565929695</v>
+        <v>0.1679640138786969</v>
       </c>
       <c r="D24">
-        <v>1.149817401139594</v>
+        <v>1.865659873744088</v>
       </c>
       <c r="E24">
-        <v>10.95976751771568</v>
+        <v>1.55344031585754</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>37711</v>
+        <v>38077</v>
       </c>
       <c r="B25">
-        <v>-0.05525117824914728</v>
+        <v>-0.01848774658164658</v>
       </c>
       <c r="C25">
-        <v>-0.04224849860754609</v>
+        <v>0.01219652520509595</v>
       </c>
       <c r="D25">
-        <v>1.086288634955259</v>
+        <v>1.831168026790761</v>
       </c>
       <c r="E25">
-        <v>10.49673379500444</v>
+        <v>1.572386889824509</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>37802</v>
+        <v>38168</v>
       </c>
       <c r="B26">
-        <v>0.1379823863743633</v>
+        <v>0.01667000614293658</v>
       </c>
       <c r="C26">
-        <v>0.2059663092454998</v>
+        <v>0.04306453316878119</v>
       </c>
       <c r="D26">
-        <v>1.236177333097736</v>
+        <v>1.861693609046112</v>
       </c>
       <c r="E26">
-        <v>12.65870731389401</v>
+        <v>1.640100997195513</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>37894</v>
+        <v>38260</v>
       </c>
       <c r="B27">
-        <v>0.03647882990619255</v>
+        <v>-0.03149337669872607</v>
       </c>
       <c r="C27">
-        <v>0.06686292454022864</v>
+        <v>-0.02071433067067719</v>
       </c>
       <c r="D27">
-        <v>1.281271635765699</v>
+        <v>1.803062590918811</v>
       </c>
       <c r="E27">
-        <v>13.50510550579975</v>
+        <v>1.606127402806298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>37986</v>
+        <v>38352</v>
       </c>
       <c r="B28">
-        <v>0.1161938504049661</v>
+        <v>0.1059771946123708</v>
       </c>
       <c r="C28">
-        <v>0.134490193110587</v>
+        <v>0.1314169669363998</v>
       </c>
       <c r="D28">
-        <v>1.430147520539985</v>
+        <v>1.9941461060149</v>
       </c>
       <c r="E28">
-        <v>15.32140975325361</v>
+        <v>1.817199794596538</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>38077</v>
+        <v>38442</v>
       </c>
       <c r="B29">
-        <v>0.007236054373186429</v>
+        <v>0.0007561005096121412</v>
       </c>
       <c r="C29">
-        <v>0.02564659178468778</v>
+        <v>0.003273058506005695</v>
       </c>
       <c r="D29">
-        <v>1.44049614576029</v>
+        <v>1.995653880901899</v>
       </c>
       <c r="E29">
-        <v>15.71435169476124</v>
+        <v>1.823147595841354</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>38168</v>
+        <v>38533</v>
       </c>
       <c r="B30">
-        <v>0.01578876668400489</v>
+        <v>3.006529399674368e-05</v>
       </c>
       <c r="C30">
-        <v>0.009880221412670942</v>
+        <v>0.004692807701145146</v>
       </c>
       <c r="D30">
-        <v>1.463239803314907</v>
+        <v>1.995713880822544</v>
       </c>
       <c r="E30">
-        <v>15.86961296886206</v>
+        <v>1.831703276919443</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>38260</v>
+        <v>38625</v>
       </c>
       <c r="B31">
-        <v>-0.009515544556815763</v>
+        <v>0.05384131717188272</v>
       </c>
       <c r="C31">
-        <v>0.003766336697974132</v>
+        <v>0.04021988562839082</v>
       </c>
       <c r="D31">
-        <v>1.449316279769158</v>
+        <v>2.10316574486424</v>
       </c>
       <c r="E31">
-        <v>15.92938327456933</v>
+        <v>1.905374173222292</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>38352</v>
+        <v>38807</v>
       </c>
       <c r="B32">
-        <v>0.1070570727960351</v>
+        <v>0.07205846713925616</v>
       </c>
       <c r="C32">
-        <v>0.1097550905655377</v>
+        <v>0.05918151709950219</v>
       </c>
       <c r="D32">
-        <v>1.604475838236883</v>
+        <v>2.254716644578949</v>
       </c>
       <c r="E32">
-        <v>17.67771417852286</v>
+        <v>2.018137107435797</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>38442</v>
+        <v>38898</v>
       </c>
       <c r="B33">
-        <v>-0.006560308555101582</v>
+        <v>-0.08544781516829206</v>
       </c>
       <c r="C33">
-        <v>-0.04001585529216169</v>
+        <v>-0.04235512133898624</v>
       </c>
       <c r="D33">
-        <v>1.593949981668844</v>
+        <v>2.062056033476095</v>
       </c>
       <c r="E33">
-        <v>16.97032532605889</v>
+        <v>1.932658665371643</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>38533</v>
+        <v>39447</v>
       </c>
       <c r="B34">
-        <v>0.01321787186563009</v>
+        <v>-0.06481818344780123</v>
       </c>
       <c r="C34">
-        <v>0.05649896354749238</v>
+        <v>-0.09351428987037</v>
       </c>
       <c r="D34">
-        <v>1.615018608286766</v>
+        <v>1.928397307218596</v>
       </c>
       <c r="E34">
-        <v>17.92913111804498</v>
+        <v>1.751927462717597</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>38625</v>
+        <v>39538</v>
       </c>
       <c r="B35">
-        <v>0.02885781235788653</v>
+        <v>-0.08282126122110012</v>
       </c>
       <c r="C35">
-        <v>0.03604128124803976</v>
+        <v>-0.08326784072352074</v>
       </c>
       <c r="D35">
-        <v>1.661624512239201</v>
+        <v>1.768685010099379</v>
       </c>
       <c r="E35">
-        <v>18.57531997520342</v>
+        <v>1.606048245792866</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>38717</v>
+        <v>39629</v>
       </c>
       <c r="B36">
-        <v>0.07886959413835691</v>
+        <v>-0.05325131259631668</v>
       </c>
       <c r="C36">
-        <v>0.08506089341989638</v>
+        <v>-0.01985447981165305</v>
       </c>
       <c r="D36">
-        <v>1.792676163129852</v>
+        <v>1.674500211742157</v>
       </c>
       <c r="E36">
-        <v>20.15535328785467</v>
+        <v>1.574160993320231</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>38807</v>
+        <v>39721</v>
       </c>
       <c r="B37">
-        <v>0.08605537539618086</v>
+        <v>-0.01013900710183936</v>
       </c>
       <c r="C37">
-        <v>0.04969789230435472</v>
+        <v>-0.09674032713608208</v>
       </c>
       <c r="D37">
-        <v>1.946945583311776</v>
+        <v>1.657522442203272</v>
       </c>
       <c r="E37">
-        <v>21.15703186491069</v>
+        <v>1.421876143861572</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>38898</v>
+        <v>39813</v>
       </c>
       <c r="B38">
-        <v>-0.05391364312342688</v>
+        <v>-0.2706594301036915</v>
       </c>
       <c r="C38">
-        <v>1.660351322042019</v>
+        <v>-0.3288648151906292</v>
       </c>
       <c r="D38">
-        <v>1.841978653952373</v>
+        <v>1.208898362612455</v>
       </c>
       <c r="E38">
-        <v>56.28513769230027</v>
+        <v>0.9542711085865715</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>38990</v>
+        <v>39903</v>
       </c>
       <c r="B39">
-        <v>0.09207692387185978</v>
+        <v>-0.07177996037552618</v>
       </c>
       <c r="C39">
-        <v>0.05986423714117615</v>
+        <v>-0.1106314288782718</v>
       </c>
       <c r="D39">
-        <v>2.011582382245936</v>
+        <v>1.122123686046095</v>
       </c>
       <c r="E39">
-        <v>59.65460452263589</v>
+        <v>0.8486987323063866</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>39082</v>
+        <v>39994</v>
       </c>
       <c r="B40">
-        <v>0.0632991680167676</v>
+        <v>0.2000280577260006</v>
       </c>
       <c r="C40">
-        <v>0.05849760901156498</v>
+        <v>0.3761692952738465</v>
       </c>
       <c r="D40">
-        <v>2.138913873439292</v>
+        <v>1.346579907494236</v>
       </c>
       <c r="E40">
-        <v>63.14425625374057</v>
+        <v>1.167953136337887</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>39172</v>
+        <v>40086</v>
       </c>
       <c r="B41">
-        <v>0.008058218389281691</v>
+        <v>0.2777157002820171</v>
       </c>
       <c r="C41">
-        <v>0.05068858587031932</v>
+        <v>0.2841118032271662</v>
       </c>
       <c r="D41">
-        <v>2.15614970854733</v>
+        <v>1.720546289489691</v>
       </c>
       <c r="E41">
-        <v>66.34494930907574</v>
+        <v>1.499782407987668</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>39263</v>
+        <v>40178</v>
       </c>
       <c r="B42">
-        <v>-0.0648995385121917</v>
+        <v>0.04690337671143927</v>
       </c>
       <c r="C42">
-        <v>-0.03979917867601244</v>
+        <v>0.04583480999387701</v>
       </c>
       <c r="D42">
-        <v>2.016216587499411</v>
+        <v>1.801245720255095</v>
       </c>
       <c r="E42">
-        <v>63.70447481727285</v>
+        <v>1.568524649689943</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>39355</v>
+        <v>40268</v>
       </c>
       <c r="B43">
-        <v>-0.003692670039063293</v>
+        <v>0.09771372271743733</v>
       </c>
       <c r="C43">
-        <v>0.0104669069360826</v>
+        <v>0.07358662071623689</v>
       </c>
       <c r="D43">
-        <v>2.00877136491449</v>
+        <v>1.977252145110072</v>
       </c>
       <c r="E43">
-        <v>64.37126362659725</v>
+        <v>1.683947078170744</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>39447</v>
+        <v>40359</v>
       </c>
       <c r="B44">
-        <v>-0.1094968148319321</v>
+        <v>-0.1076293021151657</v>
       </c>
       <c r="C44">
-        <v>-0.05643381375908182</v>
+        <v>-0.1166679832629499</v>
       </c>
       <c r="D44">
-        <v>1.788817298730761</v>
+        <v>1.764441876626161</v>
       </c>
       <c r="E44">
-        <v>60.73854772365711</v>
+        <v>1.487484368639027</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>39538</v>
+        <v>40451</v>
       </c>
       <c r="B45">
-        <v>-0.09591408379351661</v>
+        <v>0.101851343157669</v>
       </c>
       <c r="C45">
-        <v>-0.07676650431405418</v>
+        <v>0.1263570560245888</v>
       </c>
       <c r="D45">
-        <v>1.617244526449007</v>
+        <v>1.944152651684174</v>
       </c>
       <c r="E45">
-        <v>56.0758617377996</v>
+        <v>1.675438514342848</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>39629</v>
+        <v>40543</v>
       </c>
       <c r="B46">
-        <v>-0.07204800581202649</v>
+        <v>0.1147768452287919</v>
       </c>
       <c r="C46">
-        <v>-0.02808244997364124</v>
+        <v>0.1634488402699488</v>
       </c>
       <c r="D46">
-        <v>1.50072528340794</v>
+        <v>2.167296359687673</v>
       </c>
       <c r="E46">
-        <v>54.50111415581902</v>
+        <v>1.949286996455793</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>39721</v>
+        <v>40633</v>
       </c>
       <c r="B47">
-        <v>0.005015866874142587</v>
+        <v>0.05789087035655732</v>
       </c>
       <c r="C47">
-        <v>-0.07023981897697416</v>
+        <v>0.07365063968604238</v>
       </c>
       <c r="D47">
-        <v>1.508252721644175</v>
+        <v>2.292763032270591</v>
       </c>
       <c r="E47">
-        <v>50.67296576347088</v>
+        <v>2.092853230676446</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>39813</v>
+        <v>40724</v>
       </c>
       <c r="B48">
-        <v>-0.2779675925332049</v>
+        <v>-0.03018304153239231</v>
       </c>
       <c r="C48">
-        <v>-0.2838448211329014</v>
+        <v>-0.02350868788815474</v>
       </c>
       <c r="D48">
-        <v>1.08900734367709</v>
+        <v>2.223560470443634</v>
       </c>
       <c r="E48">
-        <v>36.28970686006485</v>
+        <v>2.043652997280757</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>39903</v>
+        <v>40816</v>
       </c>
       <c r="B49">
-        <v>-0.1832337289571108</v>
+        <v>-0.1708408576217506</v>
       </c>
       <c r="C49">
-        <v>-0.1408730700548572</v>
+        <v>-0.2244637258959114</v>
       </c>
       <c r="D49">
-        <v>0.8894644672334585</v>
+        <v>1.843685492699221</v>
       </c>
       <c r="E49">
-        <v>31.1774644432967</v>
+        <v>1.584927031072771</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>39994</v>
+        <v>41274</v>
       </c>
       <c r="B50">
-        <v>0.2655363565799448</v>
+        <v>0.03133992719559555</v>
       </c>
       <c r="C50">
-        <v>0.2962424381893367</v>
+        <v>0.08746741412704644</v>
       </c>
       <c r="D50">
-        <v>1.125649621169953</v>
+        <v>1.90146646181199</v>
       </c>
       <c r="E50">
-        <v>40.41355252654027</v>
+        <v>1.723556500060764</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>40086</v>
+        <v>41547</v>
       </c>
       <c r="B51">
-        <v>0.5458441250566557</v>
+        <v>0.07781425951680675</v>
       </c>
       <c r="C51">
-        <v>0.2431710193304994</v>
+        <v>0.08031415873284603</v>
       </c>
       <c r="D51">
-        <v>1.740078853757822</v>
+        <v>2.049427666533933</v>
       </c>
       <c r="E51">
-        <v>50.24095728918575</v>
+        <v>1.861982490391672</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>40178</v>
+        <v>41639</v>
       </c>
       <c r="B52">
-        <v>0.03917684892481912</v>
+        <v>0.1067514058872256</v>
       </c>
       <c r="C52">
-        <v>0.04895305907468919</v>
+        <v>0.07742538761966029</v>
       </c>
       <c r="D52">
-        <v>1.808249660128764</v>
+        <v>2.268206951200606</v>
       </c>
       <c r="E52">
-        <v>52.7004058393322</v>
+        <v>2.006147206451268</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>40268</v>
+        <v>41729</v>
       </c>
       <c r="B53">
-        <v>0.0923996290746027</v>
+        <v>0.02549764959958075</v>
       </c>
       <c r="C53">
-        <v>0.1005112612784964</v>
+        <v>0.05768293919369915</v>
       </c>
       <c r="D53">
-        <v>1.975331257998939</v>
+        <v>2.326040897261652</v>
       </c>
       <c r="E53">
-        <v>57.99739010013212</v>
+        <v>2.121867673774606</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>40359</v>
+        <v>41820</v>
       </c>
       <c r="B54">
-        <v>-0.0955277644006705</v>
+        <v>0.03551800747027964</v>
       </c>
       <c r="C54">
-        <v>-0.1139550950353279</v>
+        <v>0.05688009757334432</v>
       </c>
       <c r="D54">
-        <v>1.786632278971536</v>
+        <v>2.408657235226768</v>
       </c>
       <c r="E54">
-        <v>51.38829199947057</v>
+        <v>2.242559714096631</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>40451</v>
+        <v>41912</v>
       </c>
       <c r="B55">
-        <v>0.1157210427098225</v>
+        <v>-0.01350895891394198</v>
       </c>
       <c r="C55">
-        <v>0.1095055262916383</v>
+        <v>-0.05247701673877762</v>
       </c>
       <c r="D55">
-        <v>1.993383229233149</v>
+        <v>2.37611878359832</v>
       </c>
       <c r="E55">
-        <v>57.01559396010097</v>
+        <v>2.124876870442273</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>40543</v>
+        <v>42004</v>
       </c>
       <c r="B56">
-        <v>0.1038257758874277</v>
+        <v>0.06304108277468119</v>
       </c>
       <c r="C56">
-        <v>0.1494089264353106</v>
+        <v>0.04469217344917719</v>
       </c>
       <c r="D56">
-        <v>2.200347789649267</v>
+        <v>2.525911884517617</v>
       </c>
       <c r="E56">
-        <v>65.53423264375124</v>
+        <v>2.219842236094224</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>40633</v>
+        <v>42094</v>
       </c>
       <c r="B57">
-        <v>0.07129090158760353</v>
+        <v>0.03014688836184846</v>
       </c>
       <c r="C57">
-        <v>0.06214156713192277</v>
+        <v>0.008413871022902392</v>
       </c>
       <c r="D57">
-        <v>2.357212567379654</v>
+        <v>2.602060268112036</v>
       </c>
       <c r="E57">
-        <v>69.60663256102195</v>
+        <v>2.238519702359912</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>40724</v>
+        <v>42185</v>
       </c>
       <c r="B58">
-        <v>-0.02414510720239201</v>
+        <v>-0.02398784631026025</v>
       </c>
       <c r="C58">
-        <v>-0.03001232616034464</v>
+        <v>-0.03301626051238955</v>
       </c>
       <c r="D58">
-        <v>2.300297417241446</v>
+        <v>2.53964244631053</v>
       </c>
       <c r="E58">
-        <v>67.51757560167729</v>
+        <v>2.16461215270468</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>40816</v>
+        <v>42277</v>
       </c>
       <c r="B59">
-        <v>-0.1826109752982195</v>
+        <v>-0.1082337569144777</v>
       </c>
       <c r="C59">
-        <v>-0.2295619157418087</v>
+        <v>-0.1238129973723879</v>
       </c>
       <c r="D59">
-        <v>1.88023786240301</v>
+        <v>2.264767403126867</v>
       </c>
       <c r="E59">
-        <v>52.01811160031385</v>
+        <v>1.896605033929617</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>40908</v>
+        <v>42369</v>
       </c>
       <c r="B60">
-        <v>0.05331975750648842</v>
+        <v>0.04258777664607476</v>
       </c>
       <c r="C60">
-        <v>0.07962913879531688</v>
+        <v>-0.001271804299113499</v>
       </c>
       <c r="D60">
-        <v>1.980491689280856</v>
+        <v>2.361218811446544</v>
       </c>
       <c r="E60">
-        <v>56.16026902880553</v>
+        <v>1.894192923493745</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>40999</v>
+        <v>42460</v>
       </c>
       <c r="B61">
-        <v>0.05707322653094579</v>
+        <v>0.04825659007555714</v>
       </c>
       <c r="C61">
-        <v>0.05385246053205507</v>
+        <v>0.07963785125728216</v>
       </c>
       <c r="D61">
-        <v>2.093524740105838</v>
+        <v>2.475163179709214</v>
       </c>
       <c r="E61">
-        <v>59.18463770014888</v>
+        <v>2.045042377787536</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>41090</v>
+        <v>42551</v>
       </c>
       <c r="B62">
-        <v>-0.04272281608821224</v>
+        <v>-0.01577731778181238</v>
       </c>
       <c r="C62">
-        <v>-0.02676936791834478</v>
+        <v>0.03457045223327172</v>
       </c>
       <c r="D62">
-        <v>2.004083467658174</v>
+        <v>2.436111743661101</v>
       </c>
       <c r="E62">
-        <v>57.60030235843966</v>
+        <v>2.115740417623857</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>41182</v>
+        <v>42643</v>
       </c>
       <c r="B63">
-        <v>0.04047962750192739</v>
+        <v>0.06434139098164759</v>
       </c>
       <c r="C63">
-        <v>0.08736674497555563</v>
+        <v>0.04298563413753412</v>
       </c>
       <c r="D63">
-        <v>2.085208019911748</v>
+        <v>2.592854561834983</v>
       </c>
       <c r="E63">
-        <v>62.63265328510435</v>
+        <v>2.20668686114583</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>41274</v>
+        <v>42825</v>
       </c>
       <c r="B64">
-        <v>0.02026917550056042</v>
+        <v>0.05012402961445605</v>
       </c>
       <c r="C64">
-        <v>0.07953822407829236</v>
+        <v>0.04099526276967969</v>
       </c>
       <c r="D64">
-        <v>2.127473467222515</v>
+        <v>2.722818880678378</v>
       </c>
       <c r="E64">
-        <v>67.61434329671297</v>
+        <v>2.297150568868902</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>41364</v>
+        <v>42916</v>
       </c>
       <c r="B65">
-        <v>0.07622662780122035</v>
+        <v>-0.0006738258182540841</v>
       </c>
       <c r="C65">
-        <v>0.05399095951737983</v>
+        <v>0.02289175173723539</v>
       </c>
       <c r="D65">
-        <v>2.289643595365457</v>
+        <v>2.720984175018147</v>
       </c>
       <c r="E65">
-        <v>71.26490656844003</v>
+        <v>2.349736369394498</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41455</v>
+        <v>43465</v>
       </c>
       <c r="B66">
-        <v>0.04636260860674266</v>
+        <v>-0.1418386374229184</v>
       </c>
       <c r="C66">
-        <v>0.05653396185925078</v>
+        <v>-0.1678526842078136</v>
       </c>
       <c r="D66">
-        <v>2.39579744522632</v>
+        <v>2.335043487184249</v>
       </c>
       <c r="E66">
-        <v>75.29379407828328</v>
+        <v>1.955326812610909</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41547</v>
+        <v>43738</v>
       </c>
       <c r="B67">
-        <v>0.05438838989195293</v>
+        <v>0.006824497429265009</v>
       </c>
       <c r="C67">
-        <v>0.06932203697247712</v>
+        <v>-0.01451652392772986</v>
       </c>
       <c r="D67">
-        <v>2.526101010779434</v>
+        <v>2.35097898545976</v>
       </c>
       <c r="E67">
-        <v>80.51331325517612</v>
+        <v>1.926942264149111</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41639</v>
+        <v>43830</v>
       </c>
       <c r="B68">
-        <v>0.0652618825516486</v>
+        <v>0.06639659879556138</v>
       </c>
       <c r="C68">
-        <v>0.07607087706258707</v>
+        <v>0.06882231627068931</v>
       </c>
       <c r="D68">
-        <v>2.690959118258522</v>
+        <v>2.507075993934127</v>
       </c>
       <c r="E68">
-        <v>86.63803160971219</v>
+        <v>2.059558894087739</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41729</v>
+        <v>43921</v>
       </c>
       <c r="B69">
-        <v>0.04566048456167591</v>
+        <v>-0.2644653230803452</v>
       </c>
       <c r="C69">
-        <v>0.05522525876170909</v>
+        <v>-0.3639791991792397</v>
       </c>
       <c r="D69">
-        <v>2.813829615533867</v>
+        <v>1.844041331211361</v>
       </c>
       <c r="E69">
-        <v>91.42263932396366</v>
+        <v>1.309922297155203</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41820</v>
+        <v>44012</v>
       </c>
       <c r="B70">
-        <v>0.07636684233902527</v>
+        <v>0.2453478023431903</v>
       </c>
       <c r="C70">
-        <v>0.03628948009471926</v>
+        <v>0.2708890249657035</v>
       </c>
       <c r="D70">
-        <v>3.028712898152222</v>
+        <v>2.296472819254079</v>
       </c>
       <c r="E70">
-        <v>94.74031937391734</v>
+        <v>1.664765871012411</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41912</v>
+        <v>44104</v>
       </c>
       <c r="B71">
-        <v>-0.03564659696443946</v>
+        <v>0.07163417687081798</v>
       </c>
       <c r="C71">
-        <v>-0.05366029434934252</v>
+        <v>0.04506748981720848</v>
       </c>
       <c r="D71">
-        <v>2.92074959015079</v>
+        <v>2.460978759367552</v>
       </c>
       <c r="E71">
-        <v>89.65652594956222</v>
+        <v>1.739792689952299</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>42004</v>
+        <v>44196</v>
       </c>
       <c r="B72">
-        <v>0.07839855803441746</v>
+        <v>0.1835170885308832</v>
       </c>
       <c r="C72">
-        <v>0.008715179927111048</v>
+        <v>0.2442669611997288</v>
       </c>
       <c r="D72">
-        <v>3.149732146398228</v>
+        <v>2.91261041622303</v>
       </c>
       <c r="E72">
-        <v>90.43789870485236</v>
+        <v>2.164766563444449</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>42094</v>
+        <v>44286</v>
       </c>
       <c r="B73">
-        <v>0.02984677601229735</v>
+        <v>0.1087880803045249</v>
       </c>
       <c r="C73">
-        <v>0.00367587902522672</v>
+        <v>0.1645545151100752</v>
       </c>
       <c r="D73">
-        <v>3.243741496270509</v>
+        <v>3.229467712078897</v>
       </c>
       <c r="E73">
-        <v>90.7703374797871</v>
+        <v>2.520988675618554</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>42185</v>
+        <v>44377</v>
       </c>
       <c r="B74">
-        <v>-0.01774582331706587</v>
+        <v>0.05232352390775431</v>
       </c>
       <c r="C74">
-        <v>-0.01560264132472733</v>
+        <v>0.0322640475123909</v>
       </c>
       <c r="D74">
-        <v>3.186178632791457</v>
+        <v>3.398444843121178</v>
       </c>
       <c r="E74">
-        <v>89.35408046116552</v>
+        <v>2.602325974026911</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>42277</v>
+        <v>44469</v>
       </c>
       <c r="B75">
-        <v>-0.06958827249008219</v>
+        <v>-0.0186276223960705</v>
       </c>
       <c r="C75">
-        <v>-0.1290515545911547</v>
+        <v>-0.01773148028731816</v>
       </c>
       <c r="D75">
-        <v>2.964457965890688</v>
+        <v>3.335139895849643</v>
       </c>
       <c r="E75">
-        <v>77.82279746858899</v>
+        <v>2.556182882317277</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>42369</v>
+        <v>44561</v>
       </c>
       <c r="B76">
-        <v>0.03682518057178426</v>
+        <v>0.08040477110184929</v>
       </c>
       <c r="C76">
-        <v>-0.006099176625237018</v>
+        <v>0.07187633413524858</v>
       </c>
       <c r="D76">
-        <v>3.073624665782077</v>
+        <v>3.603301055768079</v>
       </c>
       <c r="E76">
-        <v>77.34814248135801</v>
+        <v>2.739911937277516</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>42460</v>
+        <v>44651</v>
       </c>
       <c r="B77">
-        <v>0.01837467685999678</v>
+        <v>-0.06787788049551352</v>
       </c>
       <c r="C77">
-        <v>0.07342702787202061</v>
+        <v>0.02867095695030582</v>
       </c>
       <c r="D77">
-        <v>3.130101525804739</v>
+        <v>3.358716617315295</v>
       </c>
       <c r="E77">
-        <v>83.0275866951857</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2">
-        <v>42551</v>
-      </c>
-      <c r="B78">
-        <v>0.02691514145306399</v>
-      </c>
-      <c r="C78">
-        <v>0.04364573580301488</v>
-      </c>
-      <c r="D78">
-        <v>3.214348651134225</v>
-      </c>
-      <c r="E78">
-        <v>86.65138680844569</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2">
-        <v>42643</v>
-      </c>
-      <c r="B79">
-        <v>0.03758298741043357</v>
-      </c>
-      <c r="C79">
-        <v>0.05185573932226177</v>
-      </c>
-      <c r="D79">
-        <v>3.335153476022546</v>
-      </c>
-      <c r="E79">
-        <v>91.14475853469693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2">
-        <v>42735</v>
-      </c>
-      <c r="B80">
-        <v>0.112213713195664</v>
-      </c>
-      <c r="C80">
-        <v>0.1486518559688882</v>
-      </c>
-      <c r="D80">
-        <v>3.709403431644462</v>
-      </c>
-      <c r="E80">
-        <v>104.6935960527158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2">
-        <v>42825</v>
-      </c>
-      <c r="B81">
-        <v>0.04111067824494759</v>
-      </c>
-      <c r="C81">
-        <v>0.03356840931940839</v>
-      </c>
-      <c r="D81">
-        <v>3.861899522603502</v>
-      </c>
-      <c r="E81">
-        <v>108.2079935381342</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2">
-        <v>42916</v>
-      </c>
-      <c r="B82">
-        <v>0.006223175195537034</v>
-      </c>
-      <c r="C82">
-        <v>0.02414104425421492</v>
-      </c>
-      <c r="D82">
-        <v>3.885932799920224</v>
-      </c>
-      <c r="E82">
-        <v>110.8202474987981</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2">
-        <v>43008</v>
-      </c>
-      <c r="B83">
-        <v>0.01702844136678007</v>
-      </c>
-      <c r="C83">
-        <v>0.04110880386717716</v>
-      </c>
-      <c r="D83">
-        <v>3.952104178758913</v>
-      </c>
-      <c r="E83">
-        <v>115.3759353177382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2">
-        <v>43100</v>
-      </c>
-      <c r="B84">
-        <v>0.05521559791766818</v>
-      </c>
-      <c r="C84">
-        <v>0.06391675666152914</v>
-      </c>
-      <c r="D84">
-        <v>4.170321974022002</v>
-      </c>
-      <c r="E84">
-        <v>122.7503909000384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B85">
-        <v>-0.05637956873440473</v>
-      </c>
-      <c r="C85">
-        <v>-0.05143155967638594</v>
-      </c>
-      <c r="D85">
-        <v>3.93520101964303</v>
-      </c>
-      <c r="E85">
-        <v>116.4371468451634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B86">
-        <v>0.04968812425651293</v>
-      </c>
-      <c r="C86">
-        <v>0.02999623806550281</v>
-      </c>
-      <c r="D86">
-        <v>4.13073377688141</v>
-      </c>
-      <c r="E86">
-        <v>119.9298232215988</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2">
-        <v>43373</v>
-      </c>
-      <c r="B87">
-        <v>-0.06781833896554226</v>
-      </c>
-      <c r="C87">
-        <v>-0.09191781274633061</v>
-      </c>
-      <c r="D87">
-        <v>3.850594273424452</v>
-      </c>
-      <c r="E87">
-        <v>108.9061361880154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2">
-        <v>43465</v>
-      </c>
-      <c r="B88">
-        <v>-0.139481597843462</v>
-      </c>
-      <c r="C88">
-        <v>-0.1846260702872941</v>
-      </c>
-      <c r="D88">
-        <v>3.313507231520325</v>
-      </c>
-      <c r="E88">
-        <v>88.79922423344919</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2">
-        <v>43555</v>
-      </c>
-      <c r="B89">
-        <v>0.06265955484822318</v>
-      </c>
-      <c r="C89">
-        <v>0.05510469854228014</v>
-      </c>
-      <c r="D89">
-        <v>3.521130119633757</v>
-      </c>
-      <c r="E89">
-        <v>93.69247871562175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B90">
-        <v>0.01272198377457038</v>
-      </c>
-      <c r="C90">
-        <v>-0.02734491226878834</v>
-      </c>
-      <c r="D90">
-        <v>3.565925879883889</v>
-      </c>
-      <c r="E90">
-        <v>91.13046610489775</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2">
-        <v>43738</v>
-      </c>
-      <c r="B91">
-        <v>0.01159783738744737</v>
-      </c>
-      <c r="C91">
-        <v>-0.0263739071001483</v>
-      </c>
-      <c r="D91">
-        <v>3.607282908374473</v>
-      </c>
-      <c r="E91">
-        <v>88.72699965785397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B92">
-        <v>0.05288395404878132</v>
-      </c>
-      <c r="C92">
-        <v>0.07079135916145125</v>
-      </c>
-      <c r="D92">
-        <v>3.798050291941903</v>
-      </c>
-      <c r="E92">
-        <v>95.00810455795107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B93">
-        <v>-0.3088326946107724</v>
-      </c>
-      <c r="C93">
-        <v>-0.3575330591024072</v>
-      </c>
-      <c r="D93">
-        <v>2.625088186014254</v>
-      </c>
-      <c r="E93">
-        <v>61.03956629582546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2">
-        <v>44012</v>
-      </c>
-      <c r="B94">
-        <v>0.1925474380697253</v>
-      </c>
-      <c r="C94">
-        <v>0.2729520029455252</v>
-      </c>
-      <c r="D94">
-        <v>3.1305421909384</v>
-      </c>
-      <c r="E94">
-        <v>77.70043817519719</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B95">
-        <v>0.03112826970273724</v>
-      </c>
-      <c r="C95">
-        <v>0.04374217776868422</v>
-      </c>
-      <c r="D95">
-        <v>3.227990552573729</v>
-      </c>
-      <c r="E95">
-        <v>81.09922455456132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B96">
-        <v>0.247768486519778</v>
-      </c>
-      <c r="C96">
-        <v>0.2593799315437615</v>
-      </c>
-      <c r="D96">
-        <v>4.027784886285064</v>
-      </c>
-      <c r="E96">
-        <v>102.1347358677756</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B97">
-        <v>0.1240644589238918</v>
-      </c>
-      <c r="C97">
-        <v>0.144440804791797</v>
-      </c>
-      <c r="D97">
-        <v>4.527489838863849</v>
-      </c>
-      <c r="E97">
-        <v>116.8871593137147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B98">
-        <v>0.04793036389278531</v>
-      </c>
-      <c r="C98">
-        <v>0.03944482304469848</v>
-      </c>
-      <c r="D98">
-        <v>4.744494074361481</v>
-      </c>
-      <c r="E98">
-        <v>121.4977526290417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B99">
-        <v>-0.01301042344180118</v>
-      </c>
-      <c r="C99">
-        <v>-0.02165465651051121</v>
-      </c>
-      <c r="D99">
-        <v>4.682766197436922</v>
-      </c>
-      <c r="E99">
-        <v>118.8667605290607</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B100">
-        <v>0.07374807599817711</v>
-      </c>
-      <c r="C100">
-        <v>0.07156649641956372</v>
-      </c>
-      <c r="D100">
-        <v>5.028111194847194</v>
-      </c>
-      <c r="E100">
-        <v>127.3736381208689</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B101">
-        <v>-0.0355253289211374</v>
-      </c>
-      <c r="C101">
-        <v>0.009342363174166368</v>
-      </c>
-      <c r="D101">
-        <v>4.849485890798195</v>
-      </c>
-      <c r="E101">
-        <v>128.5636089070089</v>
+        <v>2.818467834478829</v>
       </c>
     </row>
   </sheetData>
